--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3348.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3348.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195625910771706</v>
+        <v>1.52879536151886</v>
       </c>
       <c r="B1">
-        <v>2.734523907465488</v>
+        <v>3.822039365768433</v>
       </c>
       <c r="C1">
-        <v>7.117829424543435</v>
+        <v>3.016901731491089</v>
       </c>
       <c r="D1">
-        <v>2.145915017342605</v>
+        <v>2.4290452003479</v>
       </c>
       <c r="E1">
-        <v>1.184957777490169</v>
+        <v>1.420446038246155</v>
       </c>
     </row>
   </sheetData>
